--- a/TP_DATA_PROG/I.a.Paramlink/lod_results_dom.xlsx
+++ b/TP_DATA_PROG/I.a.Paramlink/lod_results_dom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\OneDrive\Desktop\Uni\NGS\Project\TP_DATA_PROG\I.a.Paramlink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7730BBD5-08CA-45AE-8BA9-0C8AE1FEF3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0D330-D8DF-41D5-A59C-36AC32B52D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FC25A46-4A1F-4F64-B011-9A683BC435CD}"/>
   </bookViews>
@@ -963,7 +963,7 @@
   <dimension ref="B2:O22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TP_DATA_PROG/I.a.Paramlink/lod_results_dom.xlsx
+++ b/TP_DATA_PROG/I.a.Paramlink/lod_results_dom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\OneDrive\Desktop\Uni\NGS\Project\TP_DATA_PROG\I.a.Paramlink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0D330-D8DF-41D5-A59C-36AC32B52D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1CD202-BC24-48A8-98E9-F70DCD0A7E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FC25A46-4A1F-4F64-B011-9A683BC435CD}"/>
   </bookViews>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB4D947-B8AF-4729-AA48-570368C29811}">
   <dimension ref="B2:O22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
